--- a/ED/TP2/RAVEN/Overall_P100_correct_incorrect.xlsx
+++ b/ED/TP2/RAVEN/Overall_P100_correct_incorrect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElRoggo\Desktop\dissertação\Arquivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UA-Repository\ED\TP2\RAVEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF34AA88-6F91-4B3E-B43A-990FFBCC80AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A750A92-7B10-4082-A904-DF76CCE54549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEI_P100_correct_incorrect" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>NaN</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiv </t>
-  </si>
-  <si>
     <t>DEI_01</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>ESEC_21</t>
+  </si>
+  <si>
+    <t>Indiv</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48:Q49"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,60 +1078,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>300.3</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>6784.5</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2972.2</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>5092.6000000000004</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4085.9</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>-2946.2</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7952.9</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3618.2</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-3236.3</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>5072.8999999999996</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2340.9</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>5603.3</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>-6589.8</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5676.3</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1664.7</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>3428.5</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>260.72000000000003</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>8260</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>-9639.6</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1317.3</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2606.8000000000002</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>3145.4</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>-923.22</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>27509</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>1526.2</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>2147.4</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>1238.5</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>353.12</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>13579</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>-640.94000000000005</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>-2185.4</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>4448.1000000000004</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>-1782.9</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>1571.3</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>3342.5</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>2894.2</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>116.6</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>-1562.2</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>-1313.6</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>1633.6</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>-11205</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>12224</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>870.86</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>-1750.1</v>
